--- a/DOM_Banner/output/test/Sara Centuori_2022.xlsx
+++ b/DOM_Banner/output/test/Sara Centuori_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona College of Medicine–Tucson; Department of Medicine, School of Medicine and Health Sciences; George Washington Cancer Center, George Washington University, Washington, DC.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297094011</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>c-Met Signaling as a Therapeutic Target in Head and Neck Cancer</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Cancer Journal</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/ppo.0000000000000619</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36165722</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/ppo.0000000000000619</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medicine, Division of Hematology/Oncology, George Washington (GW) University and GW Cancer Center, Washington, DC 20037, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA; Department of Epidemiology and Biostatistics, UA and UA Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA; Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA; Linus Pauling Institute, College of Public Health and Human Sciences, Oregon State University, Corvallis, OR 97331, USA; Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA; Department of Molecular and Cellular Biology, UA, Tucson, AZ 85724, USA; Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA; Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA; Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA; Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224313890</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Randomized Crossover Trial Evaluating Detoxification of Tobacco Carcinogens by Broccoli Seed and Sprout Extract in Current Smokers</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cancers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14092129</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35565256</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14092129</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Janssen Research and Development, LLC, San Diego, CA;; Urologic Oncology Branch, National Cancer Institute, National Institutes of Health, Bethesda, MD;; National Cancer Institute at the National Institutes of Health, Bethesda, MD;; Johns Hopkins Medical Institution, Baltimore, MD;; University of California, Irvine Medical Center, Orange, CA;; University of Southern California, Los Angeles, CA;; Cedars-Sinai Medical Center, Los Angeles, CA;; National Cancer Institute, National Institutes of Health, Bethesda, MD;; National Cancer Institute, Bethesda, MD;; Department of Urology, San Diego, CA;; University of Arizona, Tucson, AZ;; Natl Cancer Inst, Bethesda, MD;; Laboratory of Tumor Immunology and Biology, National Cancer Institute, National Institutes of Health, Bethesda, MD;; Laboratory of Tumor Immunology and Biology, National Cancer Institute, National Institutes of Health, Bethesda, MD;; University of Arizona Center Center, Tucson, AZ;; National Cancer Institute, Salisbury, MD;; University of Arizona Cancer Center, Tucson, AZ;; The University of Arizona Cancer Center, Tucson, AK;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4212869151</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Immunotherapy to prevent progression on active surveillance study (IPASS): A phase II, randomized, double-blind, controlled trial of PROSTVAC in prostate cancer patients who are candidates for active surveillance.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-02-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.249</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.249</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ;; Universidad de Sonora, Hermosillo, Mexico; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220964347</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Abstract P1-10-02: Effect of metformin on metabolic markers associated with breast cancer risk in a phase II clinical trial in overweight/obese premenopausal women</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-02-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs21-p1-10-02</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs21-p1-10-02</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221036852</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Locally produced autoantibodies in cancer</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cell Press</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cell.2022.03.006</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35364029</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cell.2022.03.006</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
